--- a/arquivos_condicionais/Josicleide - 26_04_2023.xlsx
+++ b/arquivos_condicionais/Josicleide - 26_04_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\user\Área de Trabalho\Programming\Git\Python\Sistema_Condicional_Produtos_RPA_PY\arquivos_condicionais\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94850717-E189-4F5C-8940-35D3E6B6A437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F841F1D-3CFD-4C3E-985B-167D842A67E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Marca</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>MARCA 4</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -484,7 +487,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F2" sqref="F2:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -532,8 +535,8 @@
       <c r="E2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="4">
-        <v>439.9</v>
+      <c r="F2" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
@@ -558,8 +561,8 @@
       <c r="E3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="7">
-        <v>419.9</v>
+      <c r="F3" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="G3" s="9">
         <v>0</v>
@@ -584,8 +587,8 @@
       <c r="E4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="4">
-        <v>219.9</v>
+      <c r="F4" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
